--- a/5times/TrainingRoom/Format.xlsx
+++ b/5times/TrainingRoom/Format.xlsx
@@ -9,14 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6825" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="TrainingRoom" sheetId="1" r:id="rId1"/>
-    <sheet name="Institutes" sheetId="2" r:id="rId2"/>
+    <sheet name="(1)Institutes" sheetId="2" r:id="rId1"/>
+    <sheet name="(1a)TrainingRoom" sheetId="1" r:id="rId2"/>
+    <sheet name="(2)Teachers" sheetId="3" r:id="rId3"/>
+    <sheet name="(2a)CourseByTeacher" sheetId="5" r:id="rId4"/>
+    <sheet name="(2b)RoomBookingByTeacher" sheetId="4" r:id="rId5"/>
+    <sheet name="(3)Students" sheetId="6" r:id="rId6"/>
+    <sheet name="(3a)BookingCourseByStudent" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TrainingRoom!$A$1:$D$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'(1a)TrainingRoom'!$A$1:$D$24</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +38,31 @@
     <author>Khairul Basar</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Allow to add/modify/delete Rooms</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Khairul Basar</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,12 +76,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="C23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pantry has Tea/Coffee/Water etc</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
   <si>
     <t>#</t>
   </si>
@@ -142,9 +185,6 @@
     <t>Room/Hall Name</t>
   </si>
   <si>
-    <t>Training Room</t>
-  </si>
-  <si>
     <t>Institute Name</t>
   </si>
   <si>
@@ -157,12 +197,6 @@
     <t>Add New Room, Modify, Delete room</t>
   </si>
   <si>
-    <t>List of Training Rooms/Hall</t>
-  </si>
-  <si>
-    <t>Room (3)</t>
-  </si>
-  <si>
     <t>Office Time</t>
   </si>
   <si>
@@ -178,9 +212,6 @@
     <t>Add button to allow to add more lines online</t>
   </si>
   <si>
-    <t>Enable/Disable This institute</t>
-  </si>
-  <si>
     <t>Save</t>
   </si>
   <si>
@@ -208,9 +239,6 @@
     <t>Enable/Disable This Room</t>
   </si>
   <si>
-    <t>When Institute is availabe room also available by default. User can choose not available.</t>
-  </si>
-  <si>
     <t>Room/Hall Name-1</t>
   </si>
   <si>
@@ -218,13 +246,217 @@
   </si>
   <si>
     <t>Room/Hall Name-3</t>
+  </si>
+  <si>
+    <t>Make Institute Available/Not Available</t>
+  </si>
+  <si>
+    <t>Set same in Institute form(check C3-C5)</t>
+  </si>
+  <si>
+    <t>PC/Laptop for Teacher</t>
+  </si>
+  <si>
+    <t>PC/Laptop for Students</t>
+  </si>
+  <si>
+    <t>Training Institute Address Embed it in Map</t>
+  </si>
+  <si>
+    <t>Address Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Our Training Room Rental At Affordable Prices!
+Book with us as early as now and get more of Training Room.  </t>
+  </si>
+  <si>
+    <t>*Asterisk indicates required information.</t>
+  </si>
+  <si>
+    <t>Teachers Sign-up Info</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Indipendent</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>CV /Profile</t>
+  </si>
+  <si>
+    <t>Profile Forms</t>
+  </si>
+  <si>
+    <t>Phone Number*</t>
+  </si>
+  <si>
+    <t>Email Address*</t>
+  </si>
+  <si>
+    <t>Number of Participants*</t>
+  </si>
+  <si>
+    <t>Teacher's Name*</t>
+  </si>
+  <si>
+    <t>List of Rooms</t>
+  </si>
+  <si>
+    <t>Room Booking by Teacher</t>
+  </si>
+  <si>
+    <t>List of Institutes</t>
+  </si>
+  <si>
+    <t>List of Self-registered Courses</t>
+  </si>
+  <si>
+    <t>( Future requirement)</t>
+  </si>
+  <si>
+    <t>Or choose from Map</t>
+  </si>
+  <si>
+    <t>Email Field</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Teacher's Email Address*</t>
+  </si>
+  <si>
+    <t>Courses Name*</t>
+  </si>
+  <si>
+    <t>Select Institute Name*</t>
+  </si>
+  <si>
+    <t>Select Room/Hall*</t>
+  </si>
+  <si>
+    <t>Course Date &amp; Time*</t>
+  </si>
+  <si>
+    <t>Add/modify/Delete Course Forms</t>
+  </si>
+  <si>
+    <t>Training Course[+]</t>
+  </si>
+  <si>
+    <t>List of Training Rooms/Hall [+]</t>
+  </si>
+  <si>
+    <t>Training Room/Hall/Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teachers will be able to Book a Room where he would like to give training.
+</t>
+  </si>
+  <si>
+    <t>[+] button will be accessible by admin only to edit/create new Room Booking Template</t>
+  </si>
+  <si>
+    <t>Teachers will be able to create Teacher Profiles</t>
+  </si>
+  <si>
+    <t>[+] button will be accessible by admin only to edit/create new Teacher Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin/Support will be able to create institutes
+</t>
+  </si>
+  <si>
+    <t>[+] button will be accessible by admin only to edit/create new Institute Template</t>
+  </si>
+  <si>
+    <t>[+] button will be accessible by admin only to edit/create new  room Template</t>
+  </si>
+  <si>
+    <t>Input Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Training Course Form by Teacher</t>
+  </si>
+  <si>
+    <t>Text Documents</t>
+  </si>
+  <si>
+    <t>Course Descriptions*</t>
+  </si>
+  <si>
+    <t>Pre-requisit for Participants*</t>
+  </si>
+  <si>
+    <t>Student's Name*</t>
+  </si>
+  <si>
+    <t>Company/Institute Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Student Sign-Up information</t>
+  </si>
+  <si>
+    <t>Minimum 2 hrs of booking.</t>
+  </si>
+  <si>
+    <t>Street View of Room [Future]</t>
+  </si>
+  <si>
+    <t>Street View of Institute [Future]</t>
+  </si>
+  <si>
+    <t>Course Booking by Student</t>
+  </si>
+  <si>
+    <t>Show List of Courses</t>
+  </si>
+  <si>
+    <t>Show List of Institutes</t>
+  </si>
+  <si>
+    <t>Student's Email Address*</t>
+  </si>
+  <si>
+    <t>Number of Accompanying Participants ?</t>
+  </si>
+  <si>
+    <t>Course Date &amp; Time ( Read Only - displayed automatically when course is selected)</t>
+  </si>
+  <si>
+    <t>Institute Images</t>
+  </si>
+  <si>
+    <t>Images carousel</t>
+  </si>
+  <si>
+    <t>[Sample Image]</t>
+  </si>
+  <si>
+    <t>Room/Hall Images</t>
+  </si>
+  <si>
+    <t>Teacher's Images</t>
+  </si>
+  <si>
+    <t>Student's Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Can be uploaded while making profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +471,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,13 +506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -356,21 +601,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -378,6 +614,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,6 +698,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590442</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B6DC459-5CE2-4635-95D3-3D1C9D7A2196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="0"/>
+          <a:ext cx="866667" cy="561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,10 +1046,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D9 C11:D11">
+      <formula1>"Available, Not Available"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,19 +1320,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -735,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -754,36 +1365,36 @@
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -791,13 +1402,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -819,7 +1430,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -833,7 +1444,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -847,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -861,13 +1472,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,12 +1486,12 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -889,12 +1500,12 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -903,13 +1514,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -917,7 +1528,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -931,7 +1542,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
@@ -945,13 +1556,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,10 +1570,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>7</v>
@@ -973,105 +1584,196 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>19</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="15">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E26" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D11 C15:D15 C19:D19 C23:D23">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27 C18:D18 C22:D22 C8:D12">
       <formula1>"Available, Not Available"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:D18 C12:D14 C20:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:D21 C13:D17">
       <formula1>"Available, Available on request, Not Available"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:D23">
+      <formula1>"Free Use of Pantry, Available, Available on request, Not Available"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1080,212 +1782,970 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>6</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>7</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>8</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:D11">
+      <formula1>"Available, Not Available"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>53</v>
+      <c r="B6" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="B8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A13:D14"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:D7 C9:D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
       <formula1>"Available, Not Available"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
+      <formula1>"Available, Not Available"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D8">
+      <formula1>"Available, Not Available"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>